--- a/Documentatie/Kerntaak-2/2.1.2 normalisatie/07-03-2017_Normalisatie_V1.xlsx
+++ b/Documentatie/Kerntaak-2/2.1.2 normalisatie/07-03-2017_Normalisatie_V1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="41">
   <si>
     <t>categoryID</t>
   </si>
@@ -114,30 +114,6 @@
   </si>
   <si>
     <t>brandImage</t>
-  </si>
-  <si>
-    <t>newsID</t>
-  </si>
-  <si>
-    <t>newsName</t>
-  </si>
-  <si>
-    <t>newsDescription</t>
-  </si>
-  <si>
-    <t>newsTextHeader</t>
-  </si>
-  <si>
-    <t>newsTextCenter</t>
-  </si>
-  <si>
-    <t>newsTextFooter</t>
-  </si>
-  <si>
-    <t>newsDateTime</t>
-  </si>
-  <si>
-    <t>newsImage</t>
   </si>
   <si>
     <t>pageType</t>
@@ -171,48 +147,6 @@
   </si>
   <si>
     <t>•brandImage</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>•</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>newsID</t>
-    </r>
-  </si>
-  <si>
-    <t>•newsName</t>
-  </si>
-  <si>
-    <t>•newsDescription</t>
-  </si>
-  <si>
-    <t>•newsTextHeader</t>
-  </si>
-  <si>
-    <t>•newsTextCenter</t>
-  </si>
-  <si>
-    <t>•newsTextFooter</t>
-  </si>
-  <si>
-    <t>•newsDateTime</t>
-  </si>
-  <si>
-    <t>•newsImage</t>
   </si>
   <si>
     <t>•brandID</t>
@@ -312,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -321,6 +255,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -635,97 +571,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P63"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L5" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="J6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="I7" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -733,7 +656,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -741,7 +664,7 @@
         <v>1</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>5</v>
@@ -762,42 +685,42 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
       <c r="I12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>15</v>
       </c>
       <c r="I13" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>
       <c r="I14" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -820,7 +743,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -832,330 +755,235 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="9" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>43</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>44</v>
-      </c>
       <c r="K23" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="K24" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>46</v>
-      </c>
       <c r="K25" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>47</v>
-      </c>
-      <c r="K26" s="3" t="s">
+      <c r="A26" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K26" s="9" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>48</v>
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>30</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="D41" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D42" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35" s="1" t="s">
+      <c r="G42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>30</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="G43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>5</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D44" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
+      <c r="G44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>6</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D45" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="G45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>7</v>
       </c>
-      <c r="D38" t="s">
+      <c r="D46" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>8</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D47" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>9</v>
       </c>
-      <c r="D40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>10</v>
       </c>
-      <c r="D41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>23</v>
-      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I55" s="3" t="s">
-        <v>25</v>
-      </c>
+      <c r="I55" s="3"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
-      <c r="I57" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>5</v>
-      </c>
-      <c r="D58" t="s">
-        <v>22</v>
-      </c>
-      <c r="G58" t="s">
-        <v>28</v>
-      </c>
-      <c r="I58" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>2</v>
-      </c>
-      <c r="G59" t="s">
-        <v>29</v>
-      </c>
-      <c r="I59" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>7</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3</v>
-      </c>
-      <c r="I60" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" t="s">
-        <v>4</v>
-      </c>
-      <c r="I61" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>9</v>
-      </c>
-      <c r="I62" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>10</v>
-      </c>
-      <c r="I63" t="s">
-        <v>37</v>
-      </c>
+      <c r="I56" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
